--- a/air_condition/docs/张先生  0310.xlsx
+++ b/air_condition/docs/张先生  0310.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24800" windowHeight="9660"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="249">
   <si>
     <t>封装</t>
   </si>
@@ -760,6 +760,9 @@
   </si>
   <si>
     <t>税钱</t>
+  </si>
+  <si>
+    <t>FDWS86068-F085</t>
   </si>
 </sst>
 </file>
@@ -767,15 +770,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -797,27 +807,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -830,17 +849,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -855,74 +873,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -930,16 +881,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -959,11 +903,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -976,7 +972,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,7 +1020,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,37 +1110,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,49 +1128,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,55 +1140,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1209,39 +1205,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1259,9 +1222,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1283,26 +1281,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1311,148 +1307,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1460,135 +1456,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1629,8 +1628,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10857230" y="10937875"/>
-          <a:ext cx="1103630" cy="676275"/>
+          <a:off x="11260455" y="9286875"/>
+          <a:ext cx="1149350" cy="394335"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1671,8 +1670,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9093835" y="21037550"/>
-          <a:ext cx="2120900" cy="2058670"/>
+          <a:off x="9428480" y="17468850"/>
+          <a:ext cx="2212340" cy="1753870"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1713,8 +1712,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9916795" y="1833880"/>
-          <a:ext cx="3366135" cy="2639060"/>
+          <a:off x="10297160" y="1569720"/>
+          <a:ext cx="3480435" cy="2242820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1756,8 +1755,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9602470" y="13081635"/>
-          <a:ext cx="2225040" cy="2164080"/>
+          <a:off x="9959975" y="10917555"/>
+          <a:ext cx="2316480" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2060,46 +2059,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P96"/>
+  <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3796296296296" style="2" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="39.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="39.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.87962962962963" customWidth="1"/>
     <col min="16" max="16" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="17" spans="1:7">
+    <row r="2" spans="1:7">
       <c r="A2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="24" t="s">
@@ -2108,7 +2107,7 @@
       <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>20</v>
       </c>
       <c r="F2">
@@ -2119,11 +2118,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" ht="17" spans="1:7">
+    <row r="3" spans="1:7">
       <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -2132,7 +2131,7 @@
       <c r="D3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>5</v>
       </c>
       <c r="F3">
@@ -2143,11 +2142,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="17" spans="1:7">
+    <row r="4" spans="1:7">
       <c r="A4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="24" t="s">
@@ -2156,7 +2155,7 @@
       <c r="D4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>5</v>
       </c>
       <c r="F4">
@@ -2167,11 +2166,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" ht="17" spans="1:7">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="24" t="s">
@@ -2180,7 +2179,7 @@
       <c r="D5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>5</v>
       </c>
       <c r="F5">
@@ -2191,44 +2190,44 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="17" spans="1:7">
-      <c r="A6" s="24" t="s">
+    <row r="6" s="1" customFormat="1" spans="1:7">
+      <c r="A6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="7">
         <v>15</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="17" spans="1:7">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="11">
         <v>5</v>
       </c>
       <c r="F7">
@@ -2239,44 +2238,44 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" ht="17" spans="1:16">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:16">
+      <c r="A8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="15">
         <v>3</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="16"/>
       <c r="G8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-    </row>
-    <row r="9" ht="17" spans="1:7">
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="26" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -2285,7 +2284,7 @@
       <c r="D9" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>5</v>
       </c>
       <c r="F9">
@@ -2296,11 +2295,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="17" spans="1:7">
+    <row r="10" spans="1:7">
       <c r="A10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="24" t="s">
@@ -2309,7 +2308,7 @@
       <c r="D10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>5</v>
       </c>
       <c r="F10">
@@ -2320,11 +2319,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" ht="17" spans="1:7">
+    <row r="11" spans="1:7">
       <c r="A11" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="24" t="s">
@@ -2333,7 +2332,7 @@
       <c r="D11" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>5</v>
       </c>
       <c r="F11">
@@ -2344,11 +2343,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" ht="17" spans="1:7">
+    <row r="12" spans="1:7">
       <c r="A12" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C12" s="24" t="s">
@@ -2357,7 +2356,7 @@
       <c r="D12" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>5</v>
       </c>
       <c r="F12">
@@ -2368,11 +2367,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" ht="17" spans="1:7">
+    <row r="13" spans="1:7">
       <c r="A13" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="24" t="s">
@@ -2381,7 +2380,7 @@
       <c r="D13" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <v>5</v>
       </c>
       <c r="F13">
@@ -2392,11 +2391,11 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="14" ht="17" spans="1:7">
+    <row r="14" spans="1:7">
       <c r="A14" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="24" t="s">
@@ -2405,7 +2404,7 @@
       <c r="D14" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
         <v>5</v>
       </c>
       <c r="F14">
@@ -2416,11 +2415,11 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="15" ht="17" spans="1:7">
+    <row r="15" spans="1:7">
       <c r="A15" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="24" t="s">
@@ -2429,10 +2428,10 @@
       <c r="D15" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="4">
-        <v>5</v>
-      </c>
-      <c r="F15" s="16">
+      <c r="E15" s="5">
+        <v>5</v>
+      </c>
+      <c r="F15" s="17">
         <v>1.5</v>
       </c>
       <c r="G15">
@@ -2440,11 +2439,11 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="16" ht="17" spans="1:7">
+    <row r="16" spans="1:7">
       <c r="A16" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="24" t="s">
@@ -2453,7 +2452,7 @@
       <c r="D16" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
         <v>5</v>
       </c>
       <c r="F16">
@@ -2464,20 +2463,20 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" ht="17" spans="1:7">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="11">
         <v>15</v>
       </c>
       <c r="F17">
@@ -2488,20 +2487,20 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="18" ht="17" spans="1:7">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="5">
         <v>5</v>
       </c>
       <c r="F18">
@@ -2512,11 +2511,11 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" ht="17" spans="1:7">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="24" t="s">
@@ -2525,7 +2524,7 @@
       <c r="D19" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="5">
         <v>5</v>
       </c>
       <c r="F19">
@@ -2536,11 +2535,11 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="20" ht="17" spans="1:7">
+    <row r="20" spans="1:7">
       <c r="A20" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C20" s="24" t="s">
@@ -2549,7 +2548,7 @@
       <c r="D20" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="5">
         <v>50</v>
       </c>
       <c r="F20">
@@ -2560,11 +2559,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" ht="17" spans="1:7">
+    <row r="21" spans="1:7">
       <c r="A21" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -2573,7 +2572,7 @@
       <c r="D21" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="5">
         <v>50</v>
       </c>
       <c r="F21">
@@ -2584,11 +2583,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" ht="17" spans="1:7">
+    <row r="22" spans="1:7">
       <c r="A22" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C22" s="24" t="s">
@@ -2597,7 +2596,7 @@
       <c r="D22" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="5">
         <v>50</v>
       </c>
       <c r="F22">
@@ -2608,11 +2607,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" ht="17" spans="1:7">
+    <row r="23" spans="1:7">
       <c r="A23" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C23" s="24" t="s">
@@ -2621,7 +2620,7 @@
       <c r="D23" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="5">
         <v>50</v>
       </c>
       <c r="F23">
@@ -2632,11 +2631,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" ht="17" spans="1:7">
+    <row r="24" spans="1:7">
       <c r="A24" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -2645,7 +2644,7 @@
       <c r="D24" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="5">
         <v>50</v>
       </c>
       <c r="F24">
@@ -2656,11 +2655,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" ht="17" spans="1:7">
+    <row r="25" spans="1:7">
       <c r="A25" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="24" t="s">
@@ -2669,7 +2668,7 @@
       <c r="D25" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="5">
         <v>50</v>
       </c>
       <c r="F25">
@@ -2680,11 +2679,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" ht="17" spans="1:7">
+    <row r="26" spans="1:7">
       <c r="A26" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C26" s="24" t="s">
@@ -2693,7 +2692,7 @@
       <c r="D26" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="5">
         <v>50</v>
       </c>
       <c r="F26">
@@ -2704,11 +2703,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" ht="17" spans="1:7">
+    <row r="27" spans="1:7">
       <c r="A27" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C27" s="24" t="s">
@@ -2717,7 +2716,7 @@
       <c r="D27" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="5">
         <v>50</v>
       </c>
       <c r="F27">
@@ -2728,11 +2727,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" ht="17" spans="1:7">
+    <row r="28" spans="1:7">
       <c r="A28" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C28" s="24" t="s">
@@ -2741,7 +2740,7 @@
       <c r="D28" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="5">
         <v>50</v>
       </c>
       <c r="F28">
@@ -2752,11 +2751,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" ht="17" spans="1:7">
+    <row r="29" spans="1:7">
       <c r="A29" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C29" s="24" t="s">
@@ -2765,7 +2764,7 @@
       <c r="D29" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="5">
         <v>50</v>
       </c>
       <c r="F29">
@@ -2776,11 +2775,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" ht="17" spans="1:7">
+    <row r="30" spans="1:7">
       <c r="A30" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C30" s="24" t="s">
@@ -2789,7 +2788,7 @@
       <c r="D30" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="5">
         <v>50</v>
       </c>
       <c r="F30">
@@ -2800,11 +2799,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" ht="17" spans="1:7">
+    <row r="31" spans="1:7">
       <c r="A31" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C31" s="24" t="s">
@@ -2813,7 +2812,7 @@
       <c r="D31" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="5">
         <v>50</v>
       </c>
       <c r="F31">
@@ -2824,11 +2823,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" ht="17" spans="1:7">
+    <row r="32" spans="1:7">
       <c r="A32" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C32" s="24" t="s">
@@ -2837,7 +2836,7 @@
       <c r="D32" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="5">
         <v>50</v>
       </c>
       <c r="F32">
@@ -2848,11 +2847,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" ht="17" spans="1:7">
+    <row r="33" spans="1:7">
       <c r="A33" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="24" t="s">
@@ -2861,7 +2860,7 @@
       <c r="D33" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="5">
         <v>50</v>
       </c>
       <c r="F33">
@@ -2872,11 +2871,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" ht="17" spans="1:7">
+    <row r="34" spans="1:7">
       <c r="A34" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C34" s="24" t="s">
@@ -2885,7 +2884,7 @@
       <c r="D34" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="5">
         <v>50</v>
       </c>
       <c r="F34">
@@ -2896,11 +2895,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" ht="17" spans="1:7">
+    <row r="35" spans="1:7">
       <c r="A35" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C35" s="24" t="s">
@@ -2909,7 +2908,7 @@
       <c r="D35" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="5">
         <v>50</v>
       </c>
       <c r="F35">
@@ -2920,11 +2919,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" ht="17" spans="1:7">
+    <row r="36" spans="1:7">
       <c r="A36" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C36" s="24" t="s">
@@ -2933,7 +2932,7 @@
       <c r="D36" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="5">
         <v>50</v>
       </c>
       <c r="F36">
@@ -2944,11 +2943,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" ht="17" spans="1:7">
+    <row r="37" spans="1:7">
       <c r="A37" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C37" s="24" t="s">
@@ -2957,7 +2956,7 @@
       <c r="D37" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="5">
         <v>50</v>
       </c>
       <c r="F37">
@@ -2968,20 +2967,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" ht="17" spans="1:7">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:7">
+      <c r="A38" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="5">
         <v>50</v>
       </c>
       <c r="F38">
@@ -2992,20 +2991,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" ht="17" spans="1:7">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:7">
+      <c r="A39" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="10">
         <v>330</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="5">
         <v>50</v>
       </c>
       <c r="F39">
@@ -3016,20 +3015,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" ht="17" spans="1:7">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:7">
+      <c r="A40" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="5">
         <v>50</v>
       </c>
       <c r="F40">
@@ -3040,20 +3039,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" ht="17" spans="1:7">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:7">
+      <c r="A41" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="10">
         <v>180</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="5">
         <v>50</v>
       </c>
       <c r="F41">
@@ -3064,20 +3063,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" ht="17" spans="1:7">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:7">
+      <c r="A42" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="10">
         <v>20</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="5">
         <v>50</v>
       </c>
       <c r="F42">
@@ -3088,20 +3087,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" ht="17" spans="1:7">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:7">
+      <c r="A43" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="5">
         <v>50</v>
       </c>
       <c r="F43">
@@ -3112,11 +3111,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" ht="17" spans="1:7">
+    <row r="44" spans="1:7">
       <c r="A44" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="5" t="s">
         <v>111</v>
       </c>
       <c r="C44" s="24" t="s">
@@ -3125,7 +3124,7 @@
       <c r="D44" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="5">
         <v>5</v>
       </c>
       <c r="F44">
@@ -3136,11 +3135,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" ht="17" spans="1:7">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:7">
+      <c r="A45" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="5" t="s">
         <v>111</v>
       </c>
       <c r="C45" s="24" t="s">
@@ -3149,7 +3148,7 @@
       <c r="D45" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="5">
         <v>15</v>
       </c>
       <c r="F45">
@@ -3160,11 +3159,11 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="46" ht="17" spans="1:7">
+    <row r="46" spans="1:7">
       <c r="A46" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="5" t="s">
         <v>111</v>
       </c>
       <c r="C46" s="24" t="s">
@@ -3173,7 +3172,7 @@
       <c r="D46" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="5">
         <v>10</v>
       </c>
       <c r="F46">
@@ -3184,11 +3183,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" ht="17" spans="1:7">
+    <row r="47" spans="1:7">
       <c r="A47" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="5" t="s">
         <v>111</v>
       </c>
       <c r="C47" s="24" t="s">
@@ -3197,7 +3196,7 @@
       <c r="D47" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="5">
         <v>5</v>
       </c>
       <c r="F47">
@@ -3208,20 +3207,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" ht="17" spans="1:7">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:7">
+      <c r="A48" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="11">
         <v>10</v>
       </c>
       <c r="F48">
@@ -3232,11 +3231,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" ht="17" spans="1:7">
+    <row r="49" spans="1:7">
       <c r="A49" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="5" t="s">
         <v>125</v>
       </c>
       <c r="C49" s="24" t="s">
@@ -3245,7 +3244,7 @@
       <c r="D49" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="5">
         <v>5</v>
       </c>
       <c r="F49">
@@ -3256,11 +3255,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" ht="17" spans="1:7">
+    <row r="50" spans="1:7">
       <c r="A50" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="5" t="s">
         <v>125</v>
       </c>
       <c r="C50" s="24" t="s">
@@ -3269,7 +3268,7 @@
       <c r="D50" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="5">
         <v>10</v>
       </c>
       <c r="F50">
@@ -3280,11 +3279,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" ht="17" spans="1:7">
+    <row r="51" spans="1:7">
       <c r="A51" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="5" t="s">
         <v>125</v>
       </c>
       <c r="C51" s="24" t="s">
@@ -3293,7 +3292,7 @@
       <c r="D51" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="5">
         <v>5</v>
       </c>
       <c r="F51">
@@ -3304,20 +3303,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" ht="34" spans="1:7">
+    <row r="52" spans="1:7">
       <c r="A52" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="4" t="s">
         <v>134</v>
       </c>
       <c r="D52" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="5">
         <v>20</v>
       </c>
       <c r="F52">
@@ -3328,11 +3327,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" ht="17" spans="1:7">
+    <row r="53" spans="1:7">
       <c r="A53" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="5" t="s">
         <v>133</v>
       </c>
       <c r="C53" s="24" t="s">
@@ -3341,7 +3340,7 @@
       <c r="D53" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="5">
         <v>30</v>
       </c>
       <c r="F53">
@@ -3352,20 +3351,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" ht="17" spans="1:7">
+    <row r="54" spans="1:7">
       <c r="A54" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="4" t="s">
         <v>140</v>
       </c>
       <c r="D54" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="5">
         <v>5</v>
       </c>
       <c r="F54">
@@ -3376,20 +3375,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" ht="17" spans="1:7">
+    <row r="55" spans="1:7">
       <c r="A55" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="4" t="s">
         <v>143</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="5">
         <v>5</v>
       </c>
       <c r="F55">
@@ -3400,20 +3399,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="56" ht="17" spans="1:7">
+    <row r="56" spans="1:7">
       <c r="A56" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D56" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="5">
         <v>20</v>
       </c>
       <c r="F56">
@@ -3424,23 +3423,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" ht="17" spans="1:7">
+    <row r="57" spans="1:7">
       <c r="A57" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="4" t="s">
         <v>149</v>
       </c>
       <c r="D57" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="E57" s="4">
-        <v>5</v>
-      </c>
-      <c r="F57" s="17">
+      <c r="E57" s="5">
+        <v>5</v>
+      </c>
+      <c r="F57" s="18">
         <v>0.6</v>
       </c>
       <c r="G57">
@@ -3448,20 +3447,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" ht="17" spans="1:7">
-      <c r="A58" s="5" t="s">
+    <row r="58" spans="1:7">
+      <c r="A58" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E58" s="11">
         <v>5</v>
       </c>
       <c r="F58">
@@ -3472,20 +3471,20 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="59" ht="17" spans="1:7">
-      <c r="A59" s="11" t="s">
+    <row r="59" spans="1:7">
+      <c r="A59" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E59" s="11">
         <v>5</v>
       </c>
       <c r="F59">
@@ -3496,20 +3495,20 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="60" ht="34" spans="1:7">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="1:7">
+      <c r="A60" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E60" s="11">
         <v>5</v>
       </c>
       <c r="F60">
@@ -3520,11 +3519,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" ht="17" spans="1:7">
+    <row r="61" spans="1:7">
       <c r="A61" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="5" t="s">
         <v>162</v>
       </c>
       <c r="C61" s="24" t="s">
@@ -3533,7 +3532,7 @@
       <c r="D61" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="5">
         <v>10</v>
       </c>
       <c r="F61">
@@ -3544,11 +3543,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" ht="17" spans="1:7">
+    <row r="62" spans="1:7">
       <c r="A62" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="5" t="s">
         <v>166</v>
       </c>
       <c r="C62" s="24" t="s">
@@ -3557,7 +3556,7 @@
       <c r="D62" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="5">
         <v>20</v>
       </c>
       <c r="F62">
@@ -3568,11 +3567,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" ht="17" spans="1:7">
+    <row r="63" spans="1:7">
       <c r="A63" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="5" t="s">
         <v>170</v>
       </c>
       <c r="C63" s="24" t="s">
@@ -3581,7 +3580,7 @@
       <c r="D63" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="5">
         <v>5</v>
       </c>
       <c r="F63">
@@ -3592,11 +3591,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" ht="34" spans="1:7">
+    <row r="64" ht="28.8" spans="1:7">
       <c r="A64" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="5" t="s">
         <v>170</v>
       </c>
       <c r="C64" s="24" t="s">
@@ -3605,7 +3604,7 @@
       <c r="D64" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="5">
         <v>35</v>
       </c>
       <c r="F64">
@@ -3616,11 +3615,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" ht="34" spans="1:7">
+    <row r="65" ht="28.8" spans="1:7">
       <c r="A65" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="5" t="s">
         <v>170</v>
       </c>
       <c r="C65" s="24" t="s">
@@ -3629,7 +3628,7 @@
       <c r="D65" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="5">
         <v>30</v>
       </c>
       <c r="F65">
@@ -3640,11 +3639,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" ht="17" spans="1:7">
+    <row r="66" spans="1:7">
       <c r="A66" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="5" t="s">
         <v>170</v>
       </c>
       <c r="C66" s="24" t="s">
@@ -3653,7 +3652,7 @@
       <c r="D66" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="5">
         <v>50</v>
       </c>
       <c r="F66">
@@ -3664,11 +3663,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" ht="17" spans="1:7">
+    <row r="67" spans="1:7">
       <c r="A67" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="5" t="s">
         <v>170</v>
       </c>
       <c r="C67" s="24" t="s">
@@ -3677,7 +3676,7 @@
       <c r="D67" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="5">
         <v>50</v>
       </c>
       <c r="F67">
@@ -3688,11 +3687,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" ht="17" spans="1:7">
+    <row r="68" spans="1:7">
       <c r="A68" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="5" t="s">
         <v>170</v>
       </c>
       <c r="C68" s="24" t="s">
@@ -3701,7 +3700,7 @@
       <c r="D68" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="5">
         <v>50</v>
       </c>
       <c r="F68">
@@ -3712,11 +3711,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" ht="17" spans="1:7">
+    <row r="69" spans="1:7">
       <c r="A69" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="5" t="s">
         <v>170</v>
       </c>
       <c r="C69" s="24" t="s">
@@ -3725,7 +3724,7 @@
       <c r="D69" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="5">
         <v>50</v>
       </c>
       <c r="F69">
@@ -3736,11 +3735,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" ht="17" spans="1:7">
+    <row r="70" spans="1:7">
       <c r="A70" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="5" t="s">
         <v>170</v>
       </c>
       <c r="C70" s="24" t="s">
@@ -3749,7 +3748,7 @@
       <c r="D70" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="5">
         <v>50</v>
       </c>
       <c r="F70">
@@ -3760,11 +3759,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" ht="17" spans="1:7">
+    <row r="71" spans="1:7">
       <c r="A71" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="5" t="s">
         <v>170</v>
       </c>
       <c r="C71" s="24" t="s">
@@ -3773,7 +3772,7 @@
       <c r="D71" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="5">
         <v>50</v>
       </c>
       <c r="F71">
@@ -3784,11 +3783,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" ht="17" spans="1:7">
+    <row r="72" spans="1:7">
       <c r="A72" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="5" t="s">
         <v>170</v>
       </c>
       <c r="C72" s="24" t="s">
@@ -3797,7 +3796,7 @@
       <c r="D72" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72" s="5">
         <v>50</v>
       </c>
       <c r="F72">
@@ -3808,11 +3807,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" ht="17" spans="1:7">
+    <row r="73" spans="1:7">
       <c r="A73" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="5" t="s">
         <v>170</v>
       </c>
       <c r="C73" s="24" t="s">
@@ -3821,7 +3820,7 @@
       <c r="D73" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="5">
         <v>50</v>
       </c>
       <c r="F73">
@@ -3832,11 +3831,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" ht="17" spans="1:7">
+    <row r="74" spans="1:7">
       <c r="A74" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="5" t="s">
         <v>170</v>
       </c>
       <c r="C74" s="24" t="s">
@@ -3845,7 +3844,7 @@
       <c r="D74" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="5">
         <v>50</v>
       </c>
       <c r="F74">
@@ -3856,11 +3855,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" ht="17" spans="1:7">
+    <row r="75" spans="1:7">
       <c r="A75" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="5" t="s">
         <v>170</v>
       </c>
       <c r="C75" s="24" t="s">
@@ -3869,7 +3868,7 @@
       <c r="D75" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="5">
         <v>50</v>
       </c>
       <c r="F75">
@@ -3880,20 +3879,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" ht="17" spans="1:7">
-      <c r="A76" s="5" t="s">
+    <row r="76" spans="1:7">
+      <c r="A76" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76" s="5">
         <v>50</v>
       </c>
       <c r="F76">
@@ -3904,20 +3903,20 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="77" ht="17" spans="1:7">
-      <c r="A77" s="5" t="s">
+    <row r="77" spans="1:7">
+      <c r="A77" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E77" s="5">
         <v>50</v>
       </c>
       <c r="F77">
@@ -3928,20 +3927,20 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="78" ht="17" spans="1:7">
-      <c r="A78" s="5" t="s">
+    <row r="78" spans="1:7">
+      <c r="A78" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E78" s="11">
         <v>50</v>
       </c>
       <c r="F78">
@@ -3952,20 +3951,20 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="79" ht="17" spans="1:7">
-      <c r="A79" s="5" t="s">
+    <row r="79" spans="1:7">
+      <c r="A79" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C79" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E79" s="11">
         <v>15</v>
       </c>
       <c r="F79">
@@ -3976,11 +3975,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" ht="17" spans="1:7">
-      <c r="A80" s="3">
+    <row r="80" spans="1:7">
+      <c r="A80" s="4">
         <v>5032</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="5" t="s">
         <v>210</v>
       </c>
       <c r="C80" s="24" t="s">
@@ -3989,7 +3988,7 @@
       <c r="D80" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="5">
         <v>5</v>
       </c>
       <c r="F80">
@@ -4000,20 +3999,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" ht="17" spans="1:7">
-      <c r="A81" s="5" t="s">
+    <row r="81" spans="1:7">
+      <c r="A81" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E81" s="11">
         <v>5</v>
       </c>
       <c r="F81">
@@ -4024,20 +4023,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" ht="17" spans="1:7">
-      <c r="A82" s="5" t="s">
+    <row r="82" spans="1:7">
+      <c r="A82" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E82" s="11">
         <v>5</v>
       </c>
       <c r="F82">
@@ -4048,11 +4047,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" ht="17" spans="1:7">
-      <c r="A83" s="3" t="s">
+    <row r="83" spans="1:7">
+      <c r="A83" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="5" t="s">
         <v>218</v>
       </c>
       <c r="C83" s="24" t="s">
@@ -4061,7 +4060,7 @@
       <c r="D83" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="5">
         <v>3</v>
       </c>
       <c r="F83">
@@ -4072,20 +4071,20 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" ht="17" spans="1:7">
-      <c r="A84" s="26" t="s">
+    <row r="84" spans="1:7">
+      <c r="A84" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="B84" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="C84" s="26" t="s">
+      <c r="C84" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="D84" s="26" t="s">
+      <c r="D84" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="E84" s="19">
+      <c r="E84" s="20">
         <v>6</v>
       </c>
       <c r="F84">
@@ -4096,11 +4095,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" ht="17" spans="1:7">
+    <row r="85" spans="1:7">
       <c r="A85" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="5" t="s">
         <v>218</v>
       </c>
       <c r="C85" s="24" t="s">
@@ -4109,22 +4108,22 @@
       <c r="D85" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="E85" s="4">
-        <v>5</v>
-      </c>
-      <c r="F85" s="22">
+      <c r="E85" s="5">
+        <v>5</v>
+      </c>
+      <c r="F85" s="21">
         <v>1.5</v>
       </c>
-      <c r="G85" s="22">
+      <c r="G85" s="21">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
     </row>
-    <row r="86" ht="17" spans="1:7">
+    <row r="86" spans="1:7">
       <c r="A86" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="5" t="s">
         <v>218</v>
       </c>
       <c r="C86" s="24" t="s">
@@ -4133,22 +4132,22 @@
       <c r="D86" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="E86" s="4">
-        <v>5</v>
-      </c>
-      <c r="F86" s="22">
+      <c r="E86" s="5">
+        <v>5</v>
+      </c>
+      <c r="F86" s="21">
         <v>2</v>
       </c>
-      <c r="G86" s="22">
+      <c r="G86" s="21">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="87" ht="17" spans="1:7">
+    <row r="87" spans="1:7">
       <c r="A87" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="5" t="s">
         <v>218</v>
       </c>
       <c r="C87" s="24" t="s">
@@ -4157,196 +4156,201 @@
       <c r="D87" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="E87" s="4">
-        <v>5</v>
-      </c>
-      <c r="F87" s="22">
+      <c r="E87" s="5">
+        <v>5</v>
+      </c>
+      <c r="F87" s="21">
         <v>10</v>
       </c>
-      <c r="G87" s="22">
+      <c r="G87" s="21">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="88" ht="17" spans="1:7">
-      <c r="A88" s="5" t="s">
+    <row r="88" spans="1:7">
+      <c r="A88" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C88" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="E88" s="13">
-        <v>5</v>
-      </c>
-      <c r="F88" s="22">
+      <c r="E88" s="11">
+        <v>5</v>
+      </c>
+      <c r="F88" s="21">
         <v>25</v>
       </c>
-      <c r="G88" s="22">
+      <c r="G88" s="21">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
     </row>
-    <row r="89" ht="17" spans="1:7">
-      <c r="A89" s="5" t="s">
+    <row r="89" spans="1:7">
+      <c r="A89" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E89" s="11">
         <v>3</v>
       </c>
-      <c r="F89" s="22">
+      <c r="F89" s="21">
         <v>12</v>
       </c>
-      <c r="G89" s="22">
+      <c r="G89" s="21">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
-    <row r="90" ht="17" spans="1:7">
-      <c r="A90" s="5" t="s">
+    <row r="90" spans="1:7">
+      <c r="A90" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="C90" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="E90" s="13">
-        <v>5</v>
-      </c>
-      <c r="F90" s="22">
+      <c r="E90" s="11">
+        <v>5</v>
+      </c>
+      <c r="F90" s="21">
         <v>2</v>
       </c>
-      <c r="G90" s="22">
+      <c r="G90" s="21">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="91" ht="17" spans="1:7">
-      <c r="A91" s="5" t="s">
+    <row r="91" spans="1:7">
+      <c r="A91" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="E91" s="13">
-        <v>5</v>
-      </c>
-      <c r="F91" s="22">
+      <c r="E91" s="11">
+        <v>5</v>
+      </c>
+      <c r="F91" s="21">
         <v>2</v>
       </c>
-      <c r="G91" s="22">
+      <c r="G91" s="21">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="92" ht="17" spans="1:7">
-      <c r="A92" s="5" t="s">
+    <row r="92" spans="1:7">
+      <c r="A92" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="C92" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="E92" s="13">
-        <v>5</v>
-      </c>
-      <c r="F92" s="22">
+      <c r="E92" s="11">
+        <v>5</v>
+      </c>
+      <c r="F92" s="21">
         <v>1</v>
       </c>
-      <c r="G92" s="22">
+      <c r="G92" s="21">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="93" ht="17" spans="1:7">
-      <c r="A93" s="5" t="s">
+    <row r="93" spans="1:7">
+      <c r="A93" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="B93" s="6"/>
-      <c r="C93" s="12" t="s">
+      <c r="B93" s="9"/>
+      <c r="C93" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="D93" s="5"/>
-      <c r="E93" s="6">
+      <c r="D93" s="8"/>
+      <c r="E93" s="9">
         <v>3</v>
       </c>
-      <c r="F93" s="22">
+      <c r="F93" s="21">
         <v>12</v>
       </c>
-      <c r="G93" s="22">
+      <c r="G93" s="21">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="21"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="23" t="s">
+      <c r="A94" s="23"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="G94" s="22">
+      <c r="G94" s="21">
         <f>SUM(G2:G93)</f>
         <v>1283.5</v>
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="21"/>
-      <c r="B95" s="22"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="23" t="s">
+      <c r="A95" s="23"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="G95" s="22">
+      <c r="G95" s="21">
         <v>38.5</v>
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="21"/>
-      <c r="B96" s="22"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="21"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="23" t="s">
+      <c r="A96" s="23"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="G96" s="22">
+      <c r="G96" s="21">
         <f>SUM(G94:G95)</f>
         <v>1322</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106" s="2" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -4357,7 +4361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4365,7 +4369,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -4373,7 +4377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4381,7 +4385,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/air_condition/docs/张先生  0310.xlsx
+++ b/air_condition/docs/张先生  0310.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="250">
   <si>
     <t>封装</t>
   </si>
@@ -763,6 +763,9 @@
   </si>
   <si>
     <t>FDWS86068-F085</t>
+  </si>
+  <si>
+    <t>BSC070N10NS</t>
   </si>
 </sst>
 </file>
@@ -770,12 +773,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -812,33 +815,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3C3C3C"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -850,7 +838,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -864,8 +859,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -874,75 +885,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -962,6 +904,74 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -969,42 +979,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1020,7 +994,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,49 +1132,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,73 +1144,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1205,6 +1215,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1222,20 +1241,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1255,11 +1274,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1278,177 +1312,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1501,9 +1511,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1523,6 +1530,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -2061,10 +2071,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P106"/>
+  <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B94" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2254,22 +2264,22 @@
       <c r="E8" s="15">
         <v>3</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="1"/>
       <c r="G8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="24" t="s">
@@ -2431,7 +2441,7 @@
       <c r="E15" s="5">
         <v>5</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="16">
         <v>1.5</v>
       </c>
       <c r="G15">
@@ -3439,7 +3449,7 @@
       <c r="E57" s="5">
         <v>5</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="17">
         <v>0.6</v>
       </c>
       <c r="G57">
@@ -4075,7 +4085,7 @@
       <c r="A84" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="B84" s="20" t="s">
+      <c r="B84" s="19" t="s">
         <v>218</v>
       </c>
       <c r="C84" s="27" t="s">
@@ -4084,7 +4094,7 @@
       <c r="D84" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="E84" s="20">
+      <c r="E84" s="19">
         <v>6</v>
       </c>
       <c r="F84">
@@ -4111,10 +4121,10 @@
       <c r="E85" s="5">
         <v>5</v>
       </c>
-      <c r="F85" s="21">
+      <c r="F85" s="20">
         <v>1.5</v>
       </c>
-      <c r="G85" s="21">
+      <c r="G85" s="20">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
@@ -4135,10 +4145,10 @@
       <c r="E86" s="5">
         <v>5</v>
       </c>
-      <c r="F86" s="21">
+      <c r="F86" s="20">
         <v>2</v>
       </c>
-      <c r="G86" s="21">
+      <c r="G86" s="20">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -4159,10 +4169,10 @@
       <c r="E87" s="5">
         <v>5</v>
       </c>
-      <c r="F87" s="21">
+      <c r="F87" s="20">
         <v>10</v>
       </c>
-      <c r="G87" s="21">
+      <c r="G87" s="20">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -4183,10 +4193,10 @@
       <c r="E88" s="11">
         <v>5</v>
       </c>
-      <c r="F88" s="21">
+      <c r="F88" s="20">
         <v>25</v>
       </c>
-      <c r="G88" s="21">
+      <c r="G88" s="20">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
@@ -4198,7 +4208,7 @@
       <c r="B89" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C89" s="22" t="s">
+      <c r="C89" s="21" t="s">
         <v>236</v>
       </c>
       <c r="D89" s="8" t="s">
@@ -4207,10 +4217,10 @@
       <c r="E89" s="11">
         <v>3</v>
       </c>
-      <c r="F89" s="21">
+      <c r="F89" s="20">
         <v>12</v>
       </c>
-      <c r="G89" s="21">
+      <c r="G89" s="20">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
@@ -4231,10 +4241,10 @@
       <c r="E90" s="11">
         <v>5</v>
       </c>
-      <c r="F90" s="21">
+      <c r="F90" s="20">
         <v>2</v>
       </c>
-      <c r="G90" s="21">
+      <c r="G90" s="20">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -4255,10 +4265,10 @@
       <c r="E91" s="11">
         <v>5</v>
       </c>
-      <c r="F91" s="21">
+      <c r="F91" s="20">
         <v>2</v>
       </c>
-      <c r="G91" s="21">
+      <c r="G91" s="20">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -4279,10 +4289,10 @@
       <c r="E92" s="11">
         <v>5</v>
       </c>
-      <c r="F92" s="21">
+      <c r="F92" s="20">
         <v>1</v>
       </c>
-      <c r="G92" s="21">
+      <c r="G92" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -4299,51 +4309,51 @@
       <c r="E93" s="9">
         <v>3</v>
       </c>
-      <c r="F93" s="21">
+      <c r="F93" s="20">
         <v>12</v>
       </c>
-      <c r="G93" s="21">
+      <c r="G93" s="20">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="23"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="21"/>
+      <c r="A94" s="22"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="20"/>
       <c r="F94" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="G94" s="21">
+      <c r="G94" s="20">
         <f>SUM(G2:G93)</f>
         <v>1283.5</v>
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="23"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="21"/>
+      <c r="A95" s="22"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="20"/>
       <c r="F95" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="G95" s="21">
+      <c r="G95" s="20">
         <v>38.5</v>
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="23"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="21"/>
+      <c r="A96" s="22"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="20"/>
       <c r="F96" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="G96" s="21">
+      <c r="G96" s="20">
         <f>SUM(G94:G95)</f>
         <v>1322</v>
       </c>
@@ -4351,6 +4361,16 @@
     <row r="106" spans="3:3">
       <c r="C106" s="2" t="s">
         <v>248</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3">
+      <c r="C107" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="108" ht="15" spans="3:3">
+      <c r="C108" s="23" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/air_condition/docs/张先生  0310.xlsx
+++ b/air_condition/docs/张先生  0310.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="21000" windowHeight="8555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="248">
   <si>
     <t>封装</t>
   </si>
@@ -760,12 +760,6 @@
   </si>
   <si>
     <t>税钱</t>
-  </si>
-  <si>
-    <t>FDWS86068-F085</t>
-  </si>
-  <si>
-    <t>BSC070N10NS</t>
   </si>
 </sst>
 </file>
@@ -774,11 +768,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -815,18 +809,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF3C3C3C"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -837,8 +823,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,32 +921,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -891,55 +938,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -951,25 +953,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -982,7 +969,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,7 +981,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,67 +1119,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,60 +1137,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1150,19 +1149,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1225,36 +1212,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1292,6 +1259,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1299,16 +1286,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1317,152 +1304,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1530,9 +1517,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -1662,7 +1646,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>153035</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>20320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1681,7 +1665,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9428480" y="17468850"/>
-          <a:ext cx="2212340" cy="1753870"/>
+          <a:ext cx="2212340" cy="1570990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2071,10 +2055,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P108"/>
+  <dimension ref="A1:P96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B94" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2105,16 +2089,16 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5">
@@ -2129,16 +2113,16 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="5">
@@ -2153,16 +2137,16 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="5">
@@ -2183,10 +2167,10 @@
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="5">
@@ -2201,16 +2185,16 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:7">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="7">
@@ -2282,16 +2266,16 @@
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="5">
@@ -2306,16 +2290,16 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="5">
@@ -2330,16 +2314,16 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="5">
@@ -2354,16 +2338,16 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="5">
@@ -2378,16 +2362,16 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="23" t="s">
         <v>44</v>
       </c>
       <c r="E13" s="5">
@@ -2402,16 +2386,16 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>45</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>47</v>
       </c>
       <c r="E14" s="5">
@@ -2426,16 +2410,16 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="23" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="5">
@@ -2450,16 +2434,16 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>50</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="23" t="s">
         <v>52</v>
       </c>
       <c r="E16" s="5">
@@ -2507,7 +2491,7 @@
       <c r="C18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="23" t="s">
         <v>59</v>
       </c>
       <c r="E18" s="5">
@@ -2528,10 +2512,10 @@
       <c r="B19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="23" t="s">
         <v>61</v>
       </c>
       <c r="E19" s="5">
@@ -2546,16 +2530,16 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="23" t="s">
         <v>65</v>
       </c>
       <c r="E20" s="5">
@@ -2570,16 +2554,16 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="23" t="s">
         <v>67</v>
       </c>
       <c r="E21" s="5">
@@ -2594,16 +2578,16 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="23" t="s">
         <v>69</v>
       </c>
       <c r="E22" s="5">
@@ -2618,16 +2602,16 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="23" t="s">
         <v>71</v>
       </c>
       <c r="E23" s="5">
@@ -2642,16 +2626,16 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="23" t="s">
         <v>73</v>
       </c>
       <c r="E24" s="5">
@@ -2666,16 +2650,16 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="23" t="s">
         <v>75</v>
       </c>
       <c r="E25" s="5">
@@ -2690,16 +2674,16 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="23" t="s">
         <v>77</v>
       </c>
       <c r="E26" s="5">
@@ -2714,16 +2698,16 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="23" t="s">
         <v>79</v>
       </c>
       <c r="E27" s="5">
@@ -2738,16 +2722,16 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="23" t="s">
         <v>81</v>
       </c>
       <c r="E28" s="5">
@@ -2762,16 +2746,16 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="23" t="s">
         <v>83</v>
       </c>
       <c r="E29" s="5">
@@ -2786,16 +2770,16 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="23" t="s">
         <v>85</v>
       </c>
       <c r="E30" s="5">
@@ -2810,16 +2794,16 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="23" t="s">
         <v>87</v>
       </c>
       <c r="E31" s="5">
@@ -2834,16 +2818,16 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="23" t="s">
         <v>89</v>
       </c>
       <c r="E32" s="5">
@@ -2858,16 +2842,16 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="23" t="s">
         <v>91</v>
       </c>
       <c r="E33" s="5">
@@ -2882,16 +2866,16 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="23" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="23" t="s">
         <v>93</v>
       </c>
       <c r="E34" s="5">
@@ -2906,16 +2890,16 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="23" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="23" t="s">
         <v>95</v>
       </c>
       <c r="E35" s="5">
@@ -2930,16 +2914,16 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="23" t="s">
         <v>31</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="23" t="s">
         <v>97</v>
       </c>
       <c r="E36" s="5">
@@ -2954,16 +2938,16 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="23" t="s">
         <v>31</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="23" t="s">
         <v>99</v>
       </c>
       <c r="E37" s="5">
@@ -3122,16 +3106,16 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="23" t="s">
         <v>110</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="23" t="s">
         <v>113</v>
       </c>
       <c r="E44" s="5">
@@ -3152,10 +3136,10 @@
       <c r="B45" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="23" t="s">
         <v>115</v>
       </c>
       <c r="E45" s="5">
@@ -3170,16 +3154,16 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="23" t="s">
         <v>116</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="23" t="s">
         <v>118</v>
       </c>
       <c r="E46" s="5">
@@ -3194,16 +3178,16 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="23" t="s">
         <v>119</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="23" t="s">
         <v>121</v>
       </c>
       <c r="E47" s="5">
@@ -3242,16 +3226,16 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="23" t="s">
         <v>124</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="23" t="s">
         <v>127</v>
       </c>
       <c r="E49" s="5">
@@ -3266,16 +3250,16 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="23" t="s">
         <v>124</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="23" t="s">
         <v>129</v>
       </c>
       <c r="E50" s="5">
@@ -3290,16 +3274,16 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="23" t="s">
         <v>124</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="23" t="s">
         <v>131</v>
       </c>
       <c r="E51" s="5">
@@ -3314,7 +3298,7 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="23" t="s">
         <v>132</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -3323,7 +3307,7 @@
       <c r="C52" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="23" t="s">
         <v>135</v>
       </c>
       <c r="E52" s="5">
@@ -3338,16 +3322,16 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="23" t="s">
         <v>136</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="23" t="s">
         <v>138</v>
       </c>
       <c r="E53" s="5">
@@ -3362,7 +3346,7 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="23" t="s">
         <v>139</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -3371,7 +3355,7 @@
       <c r="C54" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="23" t="s">
         <v>141</v>
       </c>
       <c r="E54" s="5">
@@ -3386,7 +3370,7 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="23" t="s">
         <v>142</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -3395,7 +3379,7 @@
       <c r="C55" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="23" t="s">
         <v>144</v>
       </c>
       <c r="E55" s="5">
@@ -3410,7 +3394,7 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="23" t="s">
         <v>145</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -3419,7 +3403,7 @@
       <c r="C56" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D56" s="23" t="s">
         <v>147</v>
       </c>
       <c r="E56" s="5">
@@ -3434,7 +3418,7 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="23" t="s">
         <v>148</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -3443,7 +3427,7 @@
       <c r="C57" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="D57" s="23" t="s">
         <v>150</v>
       </c>
       <c r="E57" s="5">
@@ -3530,16 +3514,16 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="23" t="s">
         <v>161</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D61" s="23" t="s">
         <v>164</v>
       </c>
       <c r="E61" s="5">
@@ -3554,16 +3538,16 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="23" t="s">
         <v>165</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C62" s="24" t="s">
+      <c r="C62" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="D62" s="24" t="s">
+      <c r="D62" s="23" t="s">
         <v>168</v>
       </c>
       <c r="E62" s="5">
@@ -3578,16 +3562,16 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="23" t="s">
         <v>169</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C63" s="24" t="s">
+      <c r="C63" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D63" s="23" t="s">
         <v>172</v>
       </c>
       <c r="E63" s="5">
@@ -3602,16 +3586,16 @@
       </c>
     </row>
     <row r="64" ht="28.8" spans="1:7">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="23" t="s">
         <v>169</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D64" s="24" t="s">
+      <c r="D64" s="23" t="s">
         <v>174</v>
       </c>
       <c r="E64" s="5">
@@ -3626,16 +3610,16 @@
       </c>
     </row>
     <row r="65" ht="28.8" spans="1:7">
-      <c r="A65" s="24" t="s">
+      <c r="A65" s="23" t="s">
         <v>169</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C65" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="D65" s="24" t="s">
+      <c r="D65" s="23" t="s">
         <v>176</v>
       </c>
       <c r="E65" s="5">
@@ -3650,16 +3634,16 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="24" t="s">
+      <c r="A66" s="23" t="s">
         <v>177</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D66" s="24" t="s">
+      <c r="D66" s="23" t="s">
         <v>179</v>
       </c>
       <c r="E66" s="5">
@@ -3674,16 +3658,16 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="24" t="s">
+      <c r="A67" s="23" t="s">
         <v>177</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="D67" s="24" t="s">
+      <c r="D67" s="23" t="s">
         <v>181</v>
       </c>
       <c r="E67" s="5">
@@ -3698,16 +3682,16 @@
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="24" t="s">
+      <c r="A68" s="23" t="s">
         <v>177</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="C68" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="D68" s="24" t="s">
+      <c r="D68" s="23" t="s">
         <v>183</v>
       </c>
       <c r="E68" s="5">
@@ -3722,16 +3706,16 @@
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="24" t="s">
+      <c r="A69" s="23" t="s">
         <v>177</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="D69" s="24" t="s">
+      <c r="D69" s="23" t="s">
         <v>185</v>
       </c>
       <c r="E69" s="5">
@@ -3746,16 +3730,16 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="24" t="s">
+      <c r="A70" s="23" t="s">
         <v>177</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="D70" s="24" t="s">
+      <c r="D70" s="23" t="s">
         <v>187</v>
       </c>
       <c r="E70" s="5">
@@ -3770,16 +3754,16 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="24" t="s">
+      <c r="A71" s="23" t="s">
         <v>177</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="C71" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="D71" s="24" t="s">
+      <c r="D71" s="23" t="s">
         <v>189</v>
       </c>
       <c r="E71" s="5">
@@ -3794,16 +3778,16 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="24" t="s">
+      <c r="A72" s="23" t="s">
         <v>177</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C72" s="24" t="s">
+      <c r="C72" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="D72" s="24" t="s">
+      <c r="D72" s="23" t="s">
         <v>191</v>
       </c>
       <c r="E72" s="5">
@@ -3818,16 +3802,16 @@
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="24" t="s">
+      <c r="A73" s="23" t="s">
         <v>177</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C73" s="24" t="s">
+      <c r="C73" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="D73" s="24" t="s">
+      <c r="D73" s="23" t="s">
         <v>193</v>
       </c>
       <c r="E73" s="5">
@@ -3842,16 +3826,16 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="24" t="s">
+      <c r="A74" s="23" t="s">
         <v>177</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C74" s="24" t="s">
+      <c r="C74" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="D74" s="24" t="s">
+      <c r="D74" s="23" t="s">
         <v>195</v>
       </c>
       <c r="E74" s="5">
@@ -3866,16 +3850,16 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="24" t="s">
+      <c r="A75" s="23" t="s">
         <v>196</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C75" s="24" t="s">
+      <c r="C75" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="D75" s="24" t="s">
+      <c r="D75" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E75" s="5">
@@ -3992,10 +3976,10 @@
       <c r="B80" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C80" s="24" t="s">
+      <c r="C80" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="D80" s="24" t="s">
+      <c r="D80" s="23" t="s">
         <v>212</v>
       </c>
       <c r="E80" s="5">
@@ -4064,10 +4048,10 @@
       <c r="B83" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C83" s="24" t="s">
+      <c r="C83" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="D83" s="24" t="s">
+      <c r="D83" s="23" t="s">
         <v>220</v>
       </c>
       <c r="E83" s="5">
@@ -4082,16 +4066,16 @@
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="27" t="s">
+      <c r="A84" s="26" t="s">
         <v>221</v>
       </c>
       <c r="B84" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="C84" s="27" t="s">
+      <c r="C84" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D84" s="27" t="s">
+      <c r="D84" s="26" t="s">
         <v>223</v>
       </c>
       <c r="E84" s="19">
@@ -4106,16 +4090,16 @@
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="24" t="s">
+      <c r="A85" s="23" t="s">
         <v>224</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C85" s="24" t="s">
+      <c r="C85" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="D85" s="24" t="s">
+      <c r="D85" s="23" t="s">
         <v>153</v>
       </c>
       <c r="E85" s="5">
@@ -4130,16 +4114,16 @@
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="24" t="s">
+      <c r="A86" s="23" t="s">
         <v>226</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C86" s="24" t="s">
+      <c r="C86" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="D86" s="24" t="s">
+      <c r="D86" s="23" t="s">
         <v>228</v>
       </c>
       <c r="E86" s="5">
@@ -4154,16 +4138,16 @@
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="24" t="s">
+      <c r="A87" s="23" t="s">
         <v>229</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C87" s="24" t="s">
+      <c r="C87" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="D87" s="24" t="s">
+      <c r="D87" s="23" t="s">
         <v>231</v>
       </c>
       <c r="E87" s="5">
@@ -4356,21 +4340,6 @@
       <c r="G96" s="20">
         <f>SUM(G94:G95)</f>
         <v>1322</v>
-      </c>
-    </row>
-    <row r="106" spans="3:3">
-      <c r="C106" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="107" spans="3:3">
-      <c r="C107" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="108" ht="15" spans="3:3">
-      <c r="C108" s="23" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>
